--- a/biology/Botanique/Friuli_Latisana/Friuli_Latisana.xlsx
+++ b/biology/Botanique/Friuli_Latisana/Friuli_Latisana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Friuli Latisana est un vignoble italien de la région Frioul-Vénétie Julienne doté d'une appellation DOC depuis le 19 mai 1975. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret.
 </t>
@@ -511,7 +523,9 @@
           <t>Aire de l'appellation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Pordenone et en province d'Udine dans les communes de Castions di Strada, Latisana, Lignano Sabbiadoro, Muzzana del Turgnano, Morsano al Tagliamento, Palazzolo dello Stella, Pocenia, Precenicco, Rivignano, Ronchis, Teor et Varmo.
 Les vignobles se situent en proximité de la mer Adriatique près des rives du cours d'eau du Tagliamento.
@@ -543,7 +557,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les cépages les plus importants sont :
 Cabernet franc
@@ -589,7 +605,9 @@
           <t>Vins, appellations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sous l’appellation, les vins suivants sont autorisés :
 Friuli Latisana Cabernet
